--- a/assets/archive/OWASP_MASDG_Checklist-ja.xlsx
+++ b/assets/archive/OWASP_MASDG_Checklist-ja.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1850" documentId="11_07095FE529888507DBFCFB3CBE6B314CDEDE5024" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{336C7853-0626-45B5-9225-CA6313BE9B23}"/>
+  <xr:revisionPtr revIDLastSave="1852" documentId="11_07095FE529888507DBFCFB3CBE6B314CDEDE5024" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1860B8D-18B6-4343-8DC4-5856D32D5E41}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="420" windowWidth="22428" windowHeight="11340" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="15" r:id="rId1"/>
@@ -906,13 +906,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MSTG-暗号化要件</t>
-    <rPh sb="5" eb="10">
-      <t>アンゴウカヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MASDG-認証とセッション管理要件</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1125,10 +1118,6 @@
   </si>
   <si>
     <t>OWASP Mobile Application Security Design Checklist</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OWASP モバイル アプリケーション セキュリティ デザイン チェックリストには、MASVS(v1.5.0) の各 L1 要件に対する MASDG ルールブックへのリンクが含まれています。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1184,6 +1173,17 @@
     <rPh sb="28" eb="30">
       <t>センタク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MASDG-暗号化要件</t>
+    <rPh sb="6" eb="11">
+      <t>アンゴウカヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OWASP モバイル アプリケーション セキュリティ デザイン チェックリストには、MASVS(v1.4.2) の各 L1 要件に対する MASDG ルールブックへのリンクが含まれています。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2650,7 +2650,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="53"/>
       <c r="B3" s="55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="7" spans="1:6" ht="22.8" thickBot="1">
       <c r="B7" s="57" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -2686,37 +2686,37 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="59" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="22.8" thickBot="1">
       <c r="B35" s="57" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C35" s="58"/>
       <c r="D35" s="58"/>
@@ -2725,17 +2725,17 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="59" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="22.8" thickBot="1">
       <c r="B41" s="57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +2843,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3008,7 +3008,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -3162,7 +3162,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -3404,7 +3404,7 @@
         <v>35</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
@@ -3426,7 +3426,7 @@
         <v>37</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E33" s="34"/>
       <c r="F33" s="34"/>
@@ -3459,7 +3459,7 @@
         <v>40</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E36" s="34"/>
       <c r="F36" s="34"/>
@@ -3525,7 +3525,7 @@
         <v>45</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
@@ -3569,7 +3569,7 @@
         <v>52</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E46" s="34"/>
       <c r="F46" s="34"/>
@@ -3613,7 +3613,7 @@
         <v>55</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E50" s="34"/>
       <c r="F50" s="34"/>
@@ -3657,7 +3657,7 @@
         <v>58</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E54" s="34"/>
       <c r="F54" s="34"/>
@@ -3786,7 +3786,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="10"/>
       <c r="B3" s="12" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -3836,7 +3836,7 @@
         <v>91</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -4257,7 +4257,7 @@
         <v>92</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -4297,7 +4297,7 @@
         <v>96</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
@@ -4328,7 +4328,7 @@
         <v>99</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -4359,7 +4359,7 @@
         <v>101</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -4497,7 +4497,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="14"/>
       <c r="B3" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -4547,7 +4547,7 @@
         <v>105</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -4569,7 +4569,7 @@
         <v>106</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -4602,7 +4602,7 @@
         <v>115</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -4767,7 +4767,7 @@
         <v>117</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -4800,7 +4800,7 @@
         <v>119</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -4958,7 +4958,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="18"/>
       <c r="B3" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -5008,7 +5008,7 @@
         <v>127</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -5118,7 +5118,7 @@
         <v>133</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -5173,7 +5173,7 @@
         <v>136</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -5313,7 +5313,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="22"/>
       <c r="B3" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -5363,7 +5363,7 @@
         <v>149</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -5495,7 +5495,7 @@
         <v>154</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -5583,7 +5583,7 @@
         <v>161</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
@@ -5671,7 +5671,7 @@
         <v>169</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -5792,7 +5792,7 @@
         <v>180</v>
       </c>
       <c r="D48" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -5880,7 +5880,7 @@
         <v>188</v>
       </c>
       <c r="D56" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -5957,7 +5957,7 @@
         <v>195</v>
       </c>
       <c r="D63" s="50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
@@ -6001,7 +6001,7 @@
         <v>199</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
@@ -6335,7 +6335,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="26"/>
       <c r="B3" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -6385,7 +6385,7 @@
         <v>224</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -6473,7 +6473,7 @@
         <v>223</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -6506,7 +6506,7 @@
         <v>229</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -6539,7 +6539,7 @@
         <v>231</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -6583,7 +6583,7 @@
         <v>235</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
@@ -6682,7 +6682,7 @@
         <v>244</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
@@ -6770,7 +6770,7 @@
         <v>253</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
@@ -6858,7 +6858,7 @@
         <v>255</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
@@ -6948,8 +6948,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BCA8C4E00CD6914BB15E65BC01CBDE7F" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c8df890501527c55c882552d47efc66c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="871e6f72-565c-478e-b54b-0f8101fa5872" xmlns:ns3="8c68da25-5010-4e84-9e5a-c912ee6e5b08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f6f9130429581fb30b5ead648032cb9a" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BCA8C4E00CD6914BB15E65BC01CBDE7F" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="825df9bb69f99628fb034bb6e43fa995">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="871e6f72-565c-478e-b54b-0f8101fa5872" xmlns:ns3="8c68da25-5010-4e84-9e5a-c912ee6e5b08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2957babd94b427b2ef1827f483616001" ns2:_="" ns3:_="">
     <xsd:import namespace="871e6f72-565c-478e-b54b-0f8101fa5872"/>
     <xsd:import namespace="8c68da25-5010-4e84-9e5a-c912ee6e5b08"/>
     <xsd:element name="properties">
@@ -6969,6 +6969,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -7021,6 +7022,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -7185,13 +7191,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBFD0EE4-A6F4-45CF-A284-F4D916D8A1F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C177010E-1D48-4ED7-8754-79A043DA5A73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="871e6f72-565c-478e-b54b-0f8101fa5872"/>
+    <ds:schemaRef ds:uri="8c68da25-5010-4e84-9e5a-c912ee6e5b08"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250260AA-A896-453D-8922-63565DA3124D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250260AA-A896-453D-8922-63565DA3124D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD30B633-9B6F-4F13-84DD-3212AB7C841F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD30B633-9B6F-4F13-84DD-3212AB7C841F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8c68da25-5010-4e84-9e5a-c912ee6e5b08"/>
+    <ds:schemaRef ds:uri="871e6f72-565c-478e-b54b-0f8101fa5872"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{411769f2-88ef-4c20-80b1-26523e4e7599}" enabled="1" method="Standard" siteId="{576ec8d8-f4f9-4e36-b6f4-e32d84d3d87a}" removed="0"/>
+</clbl:labelList>
 </file>
--- a/assets/archive/OWASP_MASDG_Checklist-ja.xlsx
+++ b/assets/archive/OWASP_MASDG_Checklist-ja.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1852" documentId="11_07095FE529888507DBFCFB3CBE6B314CDEDE5024" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1860B8D-18B6-4343-8DC4-5856D32D5E41}"/>
+  <xr:revisionPtr revIDLastSave="1852" documentId="11_07095FE529888507DBFCFB3CBE6B314CDEDE5024" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04B17B62-1E25-457E-8C82-34F60103F40A}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="420" windowWidth="22428" windowHeight="11340" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="15" r:id="rId1"/>
@@ -906,6 +906,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>MSTG-暗号化要件</t>
+    <rPh sb="5" eb="10">
+      <t>アンゴウカヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>MASDG-認証とセッション管理要件</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1109,15 +1116,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Copyright © 2023 LAC Co., Ltd. This work is licensed under a Creative Commons Attribution-ShareAlike 4.0 International License.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>About the Checklist</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>OWASP Mobile Application Security Design Checklist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OWASP モバイル アプリケーション セキュリティ デザイン チェックリストには、MASVS(v1.5.0) の各 L1 要件に対する MASDG ルールブックへのリンクが含まれています。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1176,14 +1183,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MASDG-暗号化要件</t>
-    <rPh sb="6" eb="11">
-      <t>アンゴウカヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OWASP モバイル アプリケーション セキュリティ デザイン チェックリストには、MASVS(v1.4.2) の各 L1 要件に対する MASDG ルールブックへのリンクが含まれています。</t>
+    <t>Copyright © The OWASP Foundation. This work is licensed under a Creative Commons Attribution-ShareAlike 4.0 International License.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2616,9 +2616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42DA56B-345C-40EA-9150-C8043EDACD7D}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2650,7 +2648,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="53"/>
       <c r="B3" s="55" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
@@ -2691,32 +2689,32 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="59" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="22.8" thickBot="1">
       <c r="B35" s="57" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C35" s="58"/>
       <c r="D35" s="58"/>
@@ -2725,17 +2723,17 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="59" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="22.8" thickBot="1">
       <c r="B41" s="57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
@@ -2744,7 +2742,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="59" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +2841,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3008,7 +3006,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -3162,7 +3160,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -3404,7 +3402,7 @@
         <v>35</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
@@ -3426,7 +3424,7 @@
         <v>37</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E33" s="34"/>
       <c r="F33" s="34"/>
@@ -3459,7 +3457,7 @@
         <v>40</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E36" s="34"/>
       <c r="F36" s="34"/>
@@ -3525,7 +3523,7 @@
         <v>45</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
@@ -3569,7 +3567,7 @@
         <v>52</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E46" s="34"/>
       <c r="F46" s="34"/>
@@ -3613,7 +3611,7 @@
         <v>55</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E50" s="34"/>
       <c r="F50" s="34"/>
@@ -3657,7 +3655,7 @@
         <v>58</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E54" s="34"/>
       <c r="F54" s="34"/>
@@ -3786,7 +3784,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="10"/>
       <c r="B3" s="12" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -3836,7 +3834,7 @@
         <v>91</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -4257,7 +4255,7 @@
         <v>92</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -4297,7 +4295,7 @@
         <v>96</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
@@ -4328,7 +4326,7 @@
         <v>99</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -4359,7 +4357,7 @@
         <v>101</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -4497,7 +4495,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="14"/>
       <c r="B3" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -4547,7 +4545,7 @@
         <v>105</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -4569,7 +4567,7 @@
         <v>106</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -4602,7 +4600,7 @@
         <v>115</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -4767,7 +4765,7 @@
         <v>117</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -4800,7 +4798,7 @@
         <v>119</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -4958,7 +4956,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="18"/>
       <c r="B3" s="20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -5008,7 +5006,7 @@
         <v>127</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -5118,7 +5116,7 @@
         <v>133</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -5173,7 +5171,7 @@
         <v>136</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -5313,7 +5311,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="22"/>
       <c r="B3" s="24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -5363,7 +5361,7 @@
         <v>149</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -5495,7 +5493,7 @@
         <v>154</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -5583,7 +5581,7 @@
         <v>161</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
@@ -5671,7 +5669,7 @@
         <v>169</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -5792,7 +5790,7 @@
         <v>180</v>
       </c>
       <c r="D48" s="50" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -5880,7 +5878,7 @@
         <v>188</v>
       </c>
       <c r="D56" s="50" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -5957,7 +5955,7 @@
         <v>195</v>
       </c>
       <c r="D63" s="50" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
@@ -6001,7 +5999,7 @@
         <v>199</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
@@ -6335,7 +6333,7 @@
     <row r="3" spans="1:6" ht="22.2">
       <c r="A3" s="26"/>
       <c r="B3" s="28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -6385,7 +6383,7 @@
         <v>224</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -6473,7 +6471,7 @@
         <v>223</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -6506,7 +6504,7 @@
         <v>229</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -6539,7 +6537,7 @@
         <v>231</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -6583,7 +6581,7 @@
         <v>235</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
@@ -6682,7 +6680,7 @@
         <v>244</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
@@ -6770,7 +6768,7 @@
         <v>253</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
@@ -6858,7 +6856,7 @@
         <v>255</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
@@ -6947,287 +6945,6 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BCA8C4E00CD6914BB15E65BC01CBDE7F" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="825df9bb69f99628fb034bb6e43fa995">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="871e6f72-565c-478e-b54b-0f8101fa5872" xmlns:ns3="8c68da25-5010-4e84-9e5a-c912ee6e5b08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2957babd94b427b2ef1827f483616001" ns2:_="" ns3:_="">
-    <xsd:import namespace="871e6f72-565c-478e-b54b-0f8101fa5872"/>
-    <xsd:import namespace="8c68da25-5010-4e84-9e5a-c912ee6e5b08"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="871e6f72-565c-478e-b54b-0f8101fa5872" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="46bebaf0-6379-4e70-9fda-b1017a58f32e" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8c68da25-5010-4e84-9e5a-c912ee6e5b08" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{4cd07a6f-f789-4228-ba62-41ca771813f6}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="8c68da25-5010-4e84-9e5a-c912ee6e5b08">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8c68da25-5010-4e84-9e5a-c912ee6e5b08" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="871e6f72-565c-478e-b54b-0f8101fa5872">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C177010E-1D48-4ED7-8754-79A043DA5A73}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="871e6f72-565c-478e-b54b-0f8101fa5872"/>
-    <ds:schemaRef ds:uri="8c68da25-5010-4e84-9e5a-c912ee6e5b08"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250260AA-A896-453D-8922-63565DA3124D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD30B633-9B6F-4F13-84DD-3212AB7C841F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8c68da25-5010-4e84-9e5a-c912ee6e5b08"/>
-    <ds:schemaRef ds:uri="871e6f72-565c-478e-b54b-0f8101fa5872"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{411769f2-88ef-4c20-80b1-26523e4e7599}" enabled="1" method="Standard" siteId="{576ec8d8-f4f9-4e36-b6f4-e32d84d3d87a}" removed="0"/>
